--- a/calificaciones_econometria.xlsx
+++ b/calificaciones_econometria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb4c6bc23888885/Escritorio/laboratorio_econometria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{7129DDB9-46C7-4BFA-ADB2-661186F5F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BD6434-586A-1149-AACC-24C6745974B9}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{7129DDB9-46C7-4BFA-ADB2-661186F5F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073FAE56-447E-4399-99A8-6DB999F9356C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{45D299E5-C12F-47F6-93B6-2CA5430569B1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -162,19 +162,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF3C4043"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -231,20 +225,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -264,8 +255,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,358 +556,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE2A533-2B3D-4D38-9FE3-86493D46F389}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.49609375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="33.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.49609375" style="4"/>
-    <col min="2" max="2" width="10.22265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.953125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="33.49609375" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="3"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="33.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3">
         <v>40</v>
       </c>
-      <c r="C2" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
         <v>44</v>
       </c>
-      <c r="C7" s="4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>92</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>115</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>85</v>
+      </c>
+      <c r="C30" s="3">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4">
-        <v>92</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4">
-        <v>80</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>70</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="B31" s="3">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>70</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3">
+        <v>80</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>85</v>
+      </c>
+      <c r="C33" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>50</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>30</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>70</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3">
+        <v>80</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>80</v>
+      </c>
+      <c r="C37" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4">
-        <v>10</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4">
-        <v>98</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>80</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" ht="14.45" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="6"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B37" xr:uid="{FDE2A533-2B3D-4D38-9FE3-86493D46F389}"/>
+  <autoFilter ref="B1:C37" xr:uid="{FDE2A533-2B3D-4D38-9FE3-86493D46F389}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>